--- a/設計書/00機能全体説明.xlsx
+++ b/設計書/00機能全体説明.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\図書館システム機能設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m0119299f7\Desktop\library_yasuda\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF908D-014B-4BA1-9C61-689514677703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FA97020-0ECC-4B2A-ABD8-7F04139D748D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
   </bookViews>
   <sheets>
     <sheet name="設計基本内容" sheetId="10" r:id="rId1"/>
     <sheet name="画面レイアウト" sheetId="11" r:id="rId2"/>
     <sheet name="画面遷移図" sheetId="4" r:id="rId3"/>
+    <sheet name="変更履歴" sheetId="13" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>画面項目一覧</t>
     <rPh sb="0" eb="2">
@@ -1320,12 +1320,81 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更/追加場所</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更/追加内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移図の図中</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ズチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移図中に画面のサイドバーにあるボタンの記載がなかったため追加。</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,8 +1417,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1386,8 +1463,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1466,13 +1549,326 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1518,6 +1914,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1529,6 +1961,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2191,15 +2716,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>432955</xdr:colOff>
+      <xdr:colOff>33812</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23502</xdr:rowOff>
+      <xdr:rowOff>77931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>298596</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561668</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>75457</xdr:rowOff>
+      <xdr:rowOff>129886</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2222,14 +2747,212 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1113312" y="268431"/>
-          <a:ext cx="12792427" cy="9114312"/>
+          <a:off x="696026" y="304717"/>
+          <a:ext cx="12447713" cy="8443026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>263071</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6223000" y="3338286"/>
+          <a:ext cx="1079500" cy="308428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>編集・削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>224971</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2211614" y="3762828"/>
+          <a:ext cx="564243" cy="337457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>270329</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4243615" y="3517901"/>
+          <a:ext cx="1716314" cy="391886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>利用者情報ターミナル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2531,39 +3254,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE15EFD-5CA0-4B39-B394-F0900FAEEE0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="27.75" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
@@ -2581,7 +3302,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
@@ -2607,7 +3328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -2633,7 +3354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
@@ -2659,7 +3380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2679,7 +3400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2699,7 +3420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2719,7 +3440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
@@ -2736,7 +3457,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
@@ -2747,118 +3468,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="2:10" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="10"/>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="2:10" ht="212.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="16" t="s">
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="2:10" ht="212.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="12"/>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="17" t="s">
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="10"/>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="2:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="16" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="2:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="12"/>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="17" t="s">
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="2:10" ht="102" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="2:10" ht="102" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="12"/>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="15" t="s">
+    <row r="33" spans="2:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2883,35 +3604,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F49D72-39D0-4E19-9715-7F3411E3F7DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="18" max="18" width="16.5" customWidth="1"/>
-    <col min="19" max="19" width="28.375" customWidth="1"/>
+    <col min="19" max="19" width="28.33203125" customWidth="1"/>
     <col min="20" max="20" width="38" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="16.125" customWidth="1"/>
-    <col min="24" max="24" width="24.125" customWidth="1"/>
+    <col min="23" max="23" width="16.08203125" customWidth="1"/>
+    <col min="24" max="24" width="24.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +3643,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2945,7 +3666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R7" s="2">
         <v>1</v>
       </c>
@@ -2968,7 +3689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R8" s="2">
         <v>2</v>
       </c>
@@ -2991,7 +3712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R9" s="2">
         <v>3</v>
       </c>
@@ -3014,7 +3735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3022,7 +3743,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" t="s">
         <v>77</v>
       </c>
@@ -3033,7 +3754,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R35" s="3" t="s">
         <v>0</v>
       </c>
@@ -3044,7 +3765,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R36" s="3" t="s">
         <v>1</v>
       </c>
@@ -3067,7 +3788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R37" s="2">
         <v>1</v>
       </c>
@@ -3090,7 +3811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R38" s="2">
         <v>2</v>
       </c>
@@ -3121,16 +3842,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C961E6-AFBA-40CF-9F40-B85224B796D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3140,4 +3861,325 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="15"/>
+    <col min="7" max="7" width="8.6640625" style="16"/>
+    <col min="9" max="9" width="8.6640625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="40"/>
+    </row>
+    <row r="3" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="42">
+        <v>45394</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="43"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="61"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="43"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="43"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="61"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="43"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="61"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="43"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="61"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="43"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="61"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="43"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="61"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="43"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="61"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="23"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="23"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="23"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E3:F12"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H3:I12"/>
+    <mergeCell ref="J3:P12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:P16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>